--- a/data-tables.xlsx
+++ b/data-tables.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\crime-reporting-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9395675B-6CCD-4491-A795-1E0C81FFEB2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21E92A5-986C-44FC-B838-E571FB2EFDA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4488" yWindow="3240" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{4BB37031-2ED4-4BFB-B803-52D6F052A7E4}"/>
+    <workbookView xWindow="240" yWindow="36" windowWidth="22200" windowHeight="12264" xr2:uid="{4BB37031-2ED4-4BFB-B803-52D6F052A7E4}"/>
   </bookViews>
   <sheets>
     <sheet name="data guide" sheetId="2" r:id="rId1"/>
     <sheet name="Residents" sheetId="1" r:id="rId2"/>
+    <sheet name="policeStation" sheetId="4" r:id="rId3"/>
+    <sheet name="policeman" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
-  <si>
-    <t>Residents</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>ssn</t>
   </si>
@@ -278,6 +277,33 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>stationID</t>
+  </si>
+  <si>
+    <t>joiningDate</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>policeman</t>
+  </si>
+  <si>
+    <t>policeStation</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>rssn</t>
+  </si>
+  <si>
+    <t>FK</t>
   </si>
 </sst>
 </file>
@@ -285,8 +311,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#\-#\-#"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="#\-#\-#"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -416,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -440,34 +466,115 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -475,82 +582,10 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -874,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F871F619-6EDA-4849-B686-11B4D415663C}">
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -892,37 +927,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H3" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G3" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="45" t="str">
+      <c r="I3" s="25" t="str">
         <f>"3-1-3"</f>
         <v>3-1-3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G4" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>65</v>
+      <c r="G4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.35">
@@ -930,561 +965,561 @@
     </row>
     <row r="8" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="16.2" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="38">
+        <v>1</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="46">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="26">
+        <v>1510004587</v>
+      </c>
+      <c r="I9" s="26">
+        <v>1510002731</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="34"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="14">
+        <v>2</v>
+      </c>
+      <c r="H10" s="26">
+        <v>1520000168</v>
+      </c>
+      <c r="I10" s="26">
+        <v>1520000169</v>
+      </c>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="35"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="18">
+        <v>3</v>
+      </c>
+      <c r="H11" s="22">
+        <v>1530001564</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="41">
+        <v>2</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="50">
+        <v>3</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="20">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22">
+        <v>2310003482</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34"/>
+      <c r="B13" s="39">
+        <v>2</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="14">
+        <v>2</v>
+      </c>
+      <c r="H13" s="22">
+        <v>2320010594</v>
+      </c>
+      <c r="I13" s="22">
+        <v>2320008752</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="35"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="18">
+        <v>3</v>
+      </c>
+      <c r="H14" s="22">
+        <v>2320006119</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="41">
+        <v>3</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="50">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="20">
+        <v>1</v>
+      </c>
+      <c r="H15" s="22">
+        <v>3110016228</v>
+      </c>
+      <c r="I15" s="22">
+        <v>3110016229</v>
+      </c>
+      <c r="J15" s="22">
+        <v>3110013471</v>
+      </c>
+      <c r="K15" s="22">
+        <v>3110016165</v>
+      </c>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="34"/>
+      <c r="B16" s="39">
+        <v>3</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="14">
+        <v>2</v>
+      </c>
+      <c r="H16" s="22">
+        <v>3120008569</v>
+      </c>
+      <c r="I16" s="22">
+        <v>3120018687</v>
+      </c>
+      <c r="J16" s="22">
+        <v>3120012817</v>
+      </c>
+      <c r="K16" s="22">
+        <v>3120019849</v>
+      </c>
+      <c r="L16" s="22">
+        <v>3120000692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="35"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="18">
+        <v>3</v>
+      </c>
+      <c r="H17" s="22">
+        <v>3130013742</v>
+      </c>
+      <c r="I17" s="22">
+        <v>3130013742</v>
+      </c>
+      <c r="J17" s="22">
+        <v>3130013742</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="41">
+        <v>4</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="50">
+        <v>9</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="20">
+        <v>1</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="34"/>
+      <c r="B19" s="39">
+        <v>4</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="14">
+        <v>2</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="35"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="18">
+        <v>3</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="41">
+        <v>5</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="50">
+        <v>4</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="20">
+        <v>1</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="34"/>
+      <c r="B22" s="39">
+        <v>5</v>
+      </c>
+      <c r="C22" s="44"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="14">
+        <v>2</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="35"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="18">
+        <v>3</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:12" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="41">
+        <v>6</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="50">
+        <v>4</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="20">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="34"/>
+      <c r="B25" s="39">
+        <v>6</v>
+      </c>
+      <c r="C25" s="44"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="14">
+        <v>2</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="35"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="18">
+        <v>3</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+    </row>
+    <row r="27" spans="1:12" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="41">
+        <v>7</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="50">
+        <v>3</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="20">
+        <v>1</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="34"/>
+      <c r="B28" s="39">
+        <v>7</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="14">
+        <v>2</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="35"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="18">
+        <v>3</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="1:12" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="38">
+        <v>8</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="46">
+        <v>6</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="16.2" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="F30" s="12">
         <v>1</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="13">
-        <v>5</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="15">
-        <v>1</v>
-      </c>
-      <c r="H9" s="46">
-        <v>1510004587</v>
-      </c>
-      <c r="I9" s="46">
-        <v>1510002731</v>
-      </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="20">
+      <c r="G30"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="34"/>
+      <c r="B31" s="39">
+        <v>8</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="14">
         <v>2</v>
       </c>
-      <c r="H10" s="46">
-        <v>1520000168</v>
-      </c>
-      <c r="I10" s="46">
-        <v>1520000168</v>
-      </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="34">
+      <c r="G31"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="37"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="16">
         <v>3</v>
       </c>
-      <c r="H11" s="42">
-        <v>1530001564</v>
-      </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-    </row>
-    <row r="12" spans="1:12" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="36">
-        <v>2</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="38">
-        <v>3</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="40">
-        <v>1</v>
-      </c>
-      <c r="H12" s="42">
-        <v>2310003482</v>
-      </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27"/>
-      <c r="B13" s="16">
-        <v>2</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="20">
-        <v>2</v>
-      </c>
-      <c r="H13" s="42">
-        <v>2320010594</v>
-      </c>
-      <c r="I13" s="42">
-        <v>2320008752</v>
-      </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-    </row>
-    <row r="14" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="34">
-        <v>3</v>
-      </c>
-      <c r="H14" s="42">
-        <v>2320006119</v>
-      </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-    </row>
-    <row r="15" spans="1:12" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="36">
-        <v>3</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="38">
-        <v>1</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="40">
-        <v>1</v>
-      </c>
-      <c r="H15" s="42">
-        <v>3110016228</v>
-      </c>
-      <c r="I15" s="42">
-        <v>3110016229</v>
-      </c>
-      <c r="J15" s="42">
-        <v>3110013471</v>
-      </c>
-      <c r="K15" s="42">
-        <v>3110016165</v>
-      </c>
-      <c r="L15" s="42"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="20">
-        <v>2</v>
-      </c>
-      <c r="H16" s="42">
-        <v>3120008569</v>
-      </c>
-      <c r="I16" s="42">
-        <v>3120018687</v>
-      </c>
-      <c r="J16" s="42">
-        <v>3120012817</v>
-      </c>
-      <c r="K16" s="42">
-        <v>3120019849</v>
-      </c>
-      <c r="L16" s="42">
-        <v>3120000692</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="34">
-        <v>3</v>
-      </c>
-      <c r="H17" s="42">
-        <v>3130013742</v>
-      </c>
-      <c r="I17" s="42">
-        <v>3130013742</v>
-      </c>
-      <c r="J17" s="42">
-        <v>3130013742</v>
-      </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-    </row>
-    <row r="18" spans="1:12" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="36">
-        <v>4</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="38">
-        <v>9</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="40">
-        <v>1</v>
-      </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
-      <c r="B19" s="16">
-        <v>4</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="20">
-        <v>2</v>
-      </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-    </row>
-    <row r="20" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="34">
-        <v>3</v>
-      </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-    </row>
-    <row r="21" spans="1:12" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="36">
-        <v>5</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="38">
-        <v>4</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="40">
-        <v>1</v>
-      </c>
-      <c r="G21"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="27"/>
-      <c r="B22" s="16">
-        <v>5</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="20">
-        <v>2</v>
-      </c>
-      <c r="G22"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-    </row>
-    <row r="23" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="34">
-        <v>3</v>
-      </c>
-      <c r="G23"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-    </row>
-    <row r="24" spans="1:12" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="36">
-        <v>6</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="38">
-        <v>4</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="40">
-        <v>1</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="27"/>
-      <c r="B25" s="16">
-        <v>6</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="20">
-        <v>2</v>
-      </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-    </row>
-    <row r="26" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="34">
-        <v>3</v>
-      </c>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-    </row>
-    <row r="27" spans="1:12" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="36">
-        <v>7</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="38">
-        <v>3</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="40">
-        <v>1</v>
-      </c>
-      <c r="G27"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="27"/>
-      <c r="B28" s="16">
-        <v>7</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="20">
-        <v>2</v>
-      </c>
-      <c r="G28"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-    </row>
-    <row r="29" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="34">
-        <v>3</v>
-      </c>
-      <c r="G29"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-    </row>
-    <row r="30" spans="1:12" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="11">
-        <v>8</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="13">
-        <v>6</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="15">
-        <v>1</v>
-      </c>
-      <c r="G30"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="27"/>
-      <c r="B31" s="16">
-        <v>8</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="20">
-        <v>2</v>
-      </c>
-      <c r="G31"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-    </row>
-    <row r="32" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="28"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="25">
-        <v>3</v>
-      </c>
       <c r="G32"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
     </row>
     <row r="33" ht="16.2" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -1531,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE565D8-60DE-46D0-BFF6-BBB9999BDD99}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -1540,8 +1575,8 @@
     <col min="1" max="5" width="16.88671875" style="5" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="47" customWidth="1"/>
-    <col min="9" max="9" width="18" style="48" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" style="27" customWidth="1"/>
+    <col min="9" max="9" width="18" style="28" customWidth="1"/>
     <col min="10" max="10" width="16.88671875" style="5" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -1550,74 +1585,74 @@
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
+      <c r="A2" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="53"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="J4" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -1625,31 +1660,31 @@
         <v>1510004587</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="E5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="G5" s="5">
         <v>4</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="27">
         <v>30731</v>
       </c>
-      <c r="I5" s="48" t="s">
-        <v>70</v>
+      <c r="I5" s="28" t="s">
+        <v>69</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -1657,95 +1692,95 @@
         <v>1510002731</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="G6" s="5">
         <v>98</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="27">
         <v>34194</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="26">
+        <v>1520000168</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="46">
-        <v>1520000168</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="5">
         <v>26</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="27">
         <v>22283</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="26">
+        <v>1520000169</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="46">
-        <v>1520000168</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="5">
         <v>19</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="27">
         <v>30978</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1755,4 +1790,242 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE8BE4E-8BE0-48B2-A731-324934F48167}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="6" width="16.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" style="5" customWidth="1"/>
+    <col min="9" max="10" width="16.88671875" style="27" customWidth="1"/>
+    <col min="11" max="11" width="18" style="28" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="24" x14ac:dyDescent="0.35">
+      <c r="A2" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="31"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>313</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56066E56-F7D0-423E-8AD1-E08CBA650992}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="7" width="16.88671875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="5" customWidth="1"/>
+    <col min="10" max="11" width="16.88671875" style="27" customWidth="1"/>
+    <col min="12" max="12" width="18" style="28" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+      <c r="A2" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="31"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>1510004587</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="5">
+        <v>313</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="27">
+        <v>30731</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>